--- a/data/tehilim-data/93.xlsx
+++ b/data/tehilim-data/93.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>original</t>
   </si>
@@ -22,214 +22,199 @@
     <t>א</t>
   </si>
   <si>
-    <t>יְהוָ֣ה</t>
+    <t>יְהוָה</t>
   </si>
   <si>
     <t>Господь</t>
   </si>
   <si>
-    <t>מָלָ֣ךְ</t>
-  </si>
-  <si>
-    <t>царствует</t>
-  </si>
-  <si>
-    <t>גֵּאֻ֑ת</t>
-  </si>
-  <si>
-    <t>в величии</t>
-  </si>
-  <si>
-    <t>לָבֵ֥שׁ</t>
-  </si>
-  <si>
-    <t>облачен</t>
-  </si>
-  <si>
-    <t>לָבֵ֖שׁ</t>
-  </si>
-  <si>
-    <t>עֹ֣ז</t>
-  </si>
-  <si>
-    <t>силой</t>
-  </si>
-  <si>
-    <t>הִתְאַזָּ֑ר</t>
-  </si>
-  <si>
-    <t>опоясался</t>
-  </si>
-  <si>
-    <t>אַ֤ף</t>
+    <t>מָלָךְ</t>
+  </si>
+  <si>
+    <t>воцарился</t>
+  </si>
+  <si>
+    <t>גֵּאוּת</t>
+  </si>
+  <si>
+    <t>величием</t>
+  </si>
+  <si>
+    <t>לָבֵשׁ</t>
+  </si>
+  <si>
+    <t>облачился</t>
+  </si>
+  <si>
+    <t>עֹז</t>
+  </si>
+  <si>
+    <t>могуществом</t>
+  </si>
+  <si>
+    <t>הִתְאַזָּר</t>
+  </si>
+  <si>
+    <t>препоясался</t>
+  </si>
+  <si>
+    <t>אַף</t>
   </si>
   <si>
     <t>и</t>
   </si>
   <si>
-    <t>תִּכּ֖וֹן</t>
-  </si>
-  <si>
-    <t>утвердил</t>
-  </si>
-  <si>
-    <t>תֵּבֵ֣ל</t>
-  </si>
-  <si>
-    <t>вселенную</t>
-  </si>
-  <si>
-    <t>בַּל־</t>
-  </si>
-  <si>
-    <t>не</t>
-  </si>
-  <si>
-    <t>תִּמּֽוֹט</t>
-  </si>
-  <si>
-    <t>поколеблется</t>
+    <t>תִּכּוֹן</t>
+  </si>
+  <si>
+    <t>утвердилась</t>
+  </si>
+  <si>
+    <t>תֵּבֵל</t>
+  </si>
+  <si>
+    <t>вселенная</t>
+  </si>
+  <si>
+    <t>בַּל-תִּמּוֹט</t>
+  </si>
+  <si>
+    <t>не поколеблется</t>
   </si>
   <si>
     <t>ב</t>
   </si>
   <si>
-    <t>נָכ֥וֹן</t>
-  </si>
-  <si>
-    <t>тверд</t>
-  </si>
-  <si>
-    <t>כִּסְאֲךָ֑</t>
-  </si>
-  <si>
-    <t>престол Твой</t>
-  </si>
-  <si>
-    <t>מֵאָ֥ז</t>
-  </si>
-  <si>
-    <t>с того времени</t>
-  </si>
-  <si>
-    <t>מֵ֝עוֹלָ֗ם</t>
+    <t>נָכוֹן</t>
+  </si>
+  <si>
+    <t>установлен</t>
+  </si>
+  <si>
+    <t>כִּסְאֲךָ</t>
+  </si>
+  <si>
+    <t>трон Твой</t>
+  </si>
+  <si>
+    <t>מֵאָז</t>
+  </si>
+  <si>
+    <t>с тех пор</t>
+  </si>
+  <si>
+    <t>מֵעוֹלָם</t>
+  </si>
+  <si>
+    <t>от вечности</t>
+  </si>
+  <si>
+    <t>אָתָּה</t>
   </si>
   <si>
     <t>Ты</t>
   </si>
   <si>
-    <t>אָ֥תָּה</t>
-  </si>
-  <si>
-    <t>от века</t>
-  </si>
-  <si>
     <t>ג</t>
   </si>
   <si>
-    <t>נָשְׂא֣וּ</t>
-  </si>
-  <si>
-    <t>подняли</t>
-  </si>
-  <si>
-    <t>נְהָר֣וֹת</t>
+    <t>נָשְׂאוּ</t>
+  </si>
+  <si>
+    <t>возносят</t>
+  </si>
+  <si>
+    <t>נְהָרוֹת</t>
   </si>
   <si>
     <t>реки</t>
   </si>
   <si>
-    <t>יְ֭הוָה</t>
-  </si>
-  <si>
-    <t>ק֑וֹלָם</t>
-  </si>
-  <si>
-    <t>голос свой</t>
-  </si>
-  <si>
-    <t>יִשְׂא֖וּ</t>
-  </si>
-  <si>
-    <t>поднимут</t>
-  </si>
-  <si>
-    <t>דָּכְיָֽם</t>
-  </si>
-  <si>
-    <t>волны свои</t>
+    <t>Господи</t>
+  </si>
+  <si>
+    <t>קוֹלָם</t>
+  </si>
+  <si>
+    <t>голоса свои</t>
+  </si>
+  <si>
+    <t>יִשְׂאוּ</t>
+  </si>
+  <si>
+    <t>דָּכְיָם</t>
+  </si>
+  <si>
+    <t>шум воды своей</t>
   </si>
   <si>
     <t>ד</t>
   </si>
   <si>
-    <t>מִקֹּל֤וֹת</t>
-  </si>
-  <si>
-    <t>от звуков</t>
-  </si>
-  <si>
-    <t>מַֽיִם־רַבִּ֗ים</t>
-  </si>
-  <si>
-    <t>вод многих</t>
-  </si>
-  <si>
-    <t>אַדִּירִים֮</t>
-  </si>
-  <si>
-    <t>величественных</t>
-  </si>
-  <si>
-    <t>מִשְׁבְּרֵי־</t>
-  </si>
-  <si>
-    <t>от волн</t>
-  </si>
-  <si>
-    <t>יָ֫ם</t>
-  </si>
-  <si>
-    <t>моря</t>
-  </si>
-  <si>
-    <t>אַדִּ֥יר</t>
-  </si>
-  <si>
-    <t>велик</t>
-  </si>
-  <si>
-    <t>בַּמָּר֥וֹם</t>
+    <t>מִקֹּלוֹת</t>
+  </si>
+  <si>
+    <t>от голосов</t>
+  </si>
+  <si>
+    <t>מַיִם</t>
+  </si>
+  <si>
+    <t>вод</t>
+  </si>
+  <si>
+    <t>רַבִּים</t>
+  </si>
+  <si>
+    <t>многих</t>
+  </si>
+  <si>
+    <t>אַדִּירִים</t>
+  </si>
+  <si>
+    <t>мощных</t>
+  </si>
+  <si>
+    <t>מִשְׁבְּרֵי-יָם</t>
+  </si>
+  <si>
+    <t>вод морских</t>
+  </si>
+  <si>
+    <t>אַדִּיר</t>
+  </si>
+  <si>
+    <t>мощен</t>
+  </si>
+  <si>
+    <t>בַּמָּרוֹם</t>
   </si>
   <si>
     <t>на высоте</t>
   </si>
   <si>
-    <t>יְהוָֽה</t>
-  </si>
-  <si>
     <t>ה</t>
   </si>
   <si>
-    <t>עֵֽדֹתֶ֨יךָ</t>
+    <t>עֵדֹתֶיךָ</t>
   </si>
   <si>
     <t>свидетельства Твои</t>
   </si>
   <si>
-    <t>נֶאֶמָ֥נוּ</t>
-  </si>
-  <si>
-    <t>очень</t>
-  </si>
-  <si>
-    <t>מְאֹ֗ד</t>
-  </si>
-  <si>
-    <t>верны</t>
-  </si>
-  <si>
-    <t>לְבֵיתְךָ֥</t>
+    <t>נֶאֶמְנוּ</t>
+  </si>
+  <si>
+    <t>весьма верны</t>
+  </si>
+  <si>
+    <t>מְאֹד</t>
+  </si>
+  <si>
+    <t>весьма</t>
+  </si>
+  <si>
+    <t>לְבֵיתְךָ</t>
   </si>
   <si>
     <t>дому Твоему</t>
@@ -238,7 +223,7 @@
     <t>נַאֲוָ֣ה</t>
   </si>
   <si>
-    <t>прилично</t>
+    <t>приличествует</t>
   </si>
   <si>
     <t>קֹ֑דֶשׁ</t>
@@ -247,19 +232,16 @@
     <t>святость</t>
   </si>
   <si>
-    <t>יְ֝הוָ֗ה</t>
-  </si>
-  <si>
-    <t>לְאֹ֥רֶךְ</t>
-  </si>
-  <si>
-    <t>на долгие</t>
-  </si>
-  <si>
-    <t>יָמִֽים</t>
-  </si>
-  <si>
-    <t>времена</t>
+    <t>לְאֹרֶךְ</t>
+  </si>
+  <si>
+    <t>на протяжении</t>
+  </si>
+  <si>
+    <t>יָמִים</t>
+  </si>
+  <si>
+    <t>дней</t>
   </si>
 </sst>
 </file>
@@ -274,11 +256,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="FF0D0D0D"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -287,18 +271,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -307,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -315,17 +293,23 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -559,13 +543,13 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>1.0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -574,7 +558,7 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -583,7 +567,7 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -592,7 +576,7 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -601,526 +585,472 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
+      <c r="A8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
+      <c r="A9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
+      <c r="A10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
+      <c r="A11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
+      <c r="A12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2.0</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
+      <c r="A14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>24</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2.0</v>
+        <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
+      <c r="A17" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>29</v>
+      <c r="A18" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>32</v>
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3.0</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
+      <c r="A20" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
+      <c r="A21" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3.0</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>38</v>
+      <c r="A23" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
+      <c r="A24" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>42</v>
+      <c r="A25" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>39</v>
+      <c r="A26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4.0</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>40</v>
+      <c r="A27" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>43</v>
+      <c r="A28" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>45</v>
+      <c r="A29" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>40</v>
+      <c r="A30" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>47</v>
+      <c r="A31" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="6">
-        <v>4.0</v>
+      <c r="A32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
+      <c r="A33" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>53</v>
+      <c r="A34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5.0</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>54</v>
+      <c r="A35" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>56</v>
+      <c r="A36" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>58</v>
+      <c r="A37" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>60</v>
+      <c r="A38" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>63</v>
+      <c r="A39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>4</v>
+      <c r="A40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="6">
-        <v>5.0</v>
+      <c r="A41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>66</v>
+      <c r="A42" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="A43" s="6"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="A44" s="8"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="A45" s="8"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="A47" s="8"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A48" s="8"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A49" s="8"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="A50" s="8"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="7"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="7"/>
+      <c r="A52" s="9"/>
     </row>
     <row r="53">
-      <c r="A53" s="7"/>
+      <c r="A53" s="9"/>
     </row>
     <row r="54">
-      <c r="A54" s="7"/>
+      <c r="A54" s="9"/>
     </row>
     <row r="55">
-      <c r="A55" s="7"/>
+      <c r="A55" s="9"/>
     </row>
     <row r="56">
-      <c r="A56" s="7"/>
+      <c r="A56" s="9"/>
     </row>
     <row r="57">
-      <c r="A57" s="7"/>
+      <c r="A57" s="9"/>
     </row>
     <row r="58">
-      <c r="A58" s="7"/>
+      <c r="A58" s="9"/>
     </row>
     <row r="59">
-      <c r="A59" s="7"/>
+      <c r="A59" s="9"/>
     </row>
     <row r="60">
-      <c r="A60" s="7"/>
+      <c r="A60" s="9"/>
     </row>
     <row r="61">
-      <c r="A61" s="7"/>
+      <c r="A61" s="9"/>
     </row>
     <row r="62">
-      <c r="A62" s="7"/>
+      <c r="A62" s="9"/>
     </row>
     <row r="63">
-      <c r="A63" s="7"/>
+      <c r="A63" s="9"/>
     </row>
     <row r="64">
-      <c r="A64" s="7"/>
+      <c r="A64" s="9"/>
     </row>
     <row r="65">
-      <c r="A65" s="7"/>
+      <c r="A65" s="9"/>
     </row>
     <row r="66">
-      <c r="A66" s="7"/>
+      <c r="A66" s="9"/>
     </row>
     <row r="67">
-      <c r="A67" s="7"/>
+      <c r="A67" s="9"/>
     </row>
     <row r="68">
-      <c r="A68" s="7"/>
+      <c r="A68" s="9"/>
     </row>
     <row r="69">
-      <c r="A69" s="7"/>
+      <c r="A69" s="9"/>
     </row>
     <row r="70">
-      <c r="A70" s="7"/>
+      <c r="A70" s="9"/>
     </row>
     <row r="71">
-      <c r="A71" s="7"/>
+      <c r="A71" s="9"/>
     </row>
     <row r="72">
-      <c r="A72" s="7"/>
+      <c r="A72" s="9"/>
     </row>
     <row r="73">
-      <c r="A73" s="7"/>
+      <c r="A73" s="9"/>
     </row>
     <row r="74">
-      <c r="A74" s="7"/>
+      <c r="A74" s="9"/>
     </row>
     <row r="75">
-      <c r="A75" s="7"/>
+      <c r="A75" s="9"/>
     </row>
     <row r="76">
-      <c r="A76" s="7"/>
+      <c r="A76" s="9"/>
     </row>
     <row r="77">
-      <c r="A77" s="7"/>
+      <c r="A77" s="9"/>
     </row>
     <row r="78">
-      <c r="A78" s="7"/>
+      <c r="A78" s="9"/>
     </row>
     <row r="79">
-      <c r="A79" s="7"/>
+      <c r="A79" s="9"/>
     </row>
     <row r="80">
-      <c r="A80" s="7"/>
+      <c r="A80" s="9"/>
     </row>
     <row r="81">
-      <c r="A81" s="7"/>
+      <c r="A81" s="9"/>
     </row>
     <row r="82">
-      <c r="A82" s="7"/>
+      <c r="A82" s="9"/>
     </row>
     <row r="83">
-      <c r="A83" s="7"/>
+      <c r="A83" s="9"/>
     </row>
     <row r="84">
-      <c r="A84" s="7"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="7"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="7"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="7"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="7"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="7"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="7"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="7"/>
+      <c r="A84" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
